--- a/config_11.10/task_ocean_explore_week_server.xlsx
+++ b/config_11.10/task_ocean_explore_week_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="233">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1014,6 +1014,14 @@
   </si>
   <si>
     <t>fish_coin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_frozen</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1591,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1714,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="19">
-        <v>15001</v>
+        <v>15002</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>101</v>
@@ -1749,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="19">
-        <v>15001</v>
+        <v>15003</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>100</v>
@@ -1784,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="19">
-        <v>15001</v>
+        <v>15004</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>100</v>
@@ -1819,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="19">
-        <v>15001</v>
+        <v>15005</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>100</v>
@@ -1854,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="19">
-        <v>15001</v>
+        <v>15006</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>100</v>
@@ -1889,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="19">
-        <v>15001</v>
+        <v>15007</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>100</v>
@@ -1924,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="19">
-        <v>15001</v>
+        <v>15008</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>100</v>
@@ -1959,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="19">
-        <v>15001</v>
+        <v>15009</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>100</v>
@@ -1994,7 +2002,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="19">
-        <v>15001</v>
+        <v>15010</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>100</v>
@@ -2029,7 +2037,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="19">
-        <v>15001</v>
+        <v>15011</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>100</v>
@@ -2064,7 +2072,7 @@
         <v>64</v>
       </c>
       <c r="G13" s="19">
-        <v>15001</v>
+        <v>15012</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>100</v>
@@ -2099,7 +2107,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="19">
-        <v>15001</v>
+        <v>15013</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>100</v>
@@ -2135,7 +2143,7 @@
         <v>64</v>
       </c>
       <c r="G15" s="19">
-        <v>15001</v>
+        <v>15014</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>100</v>
@@ -2172,7 +2180,7 @@
         <v>97</v>
       </c>
       <c r="G16" s="19">
-        <v>15001</v>
+        <v>15015</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>100</v>
@@ -2209,7 +2217,7 @@
         <v>97</v>
       </c>
       <c r="G17" s="19">
-        <v>15001</v>
+        <v>15016</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>100</v>
@@ -2246,7 +2254,7 @@
         <v>64</v>
       </c>
       <c r="G18" s="19">
-        <v>15001</v>
+        <v>15017</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>100</v>
@@ -2283,7 +2291,7 @@
         <v>97</v>
       </c>
       <c r="G19" s="19">
-        <v>15001</v>
+        <v>15018</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>100</v>
@@ -2320,7 +2328,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="19">
-        <v>15001</v>
+        <v>15019</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>100</v>
@@ -2357,7 +2365,7 @@
         <v>64</v>
       </c>
       <c r="G21" s="19">
-        <v>15001</v>
+        <v>15020</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>100</v>
@@ -2394,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="G22" s="19">
-        <v>15001</v>
+        <v>15021</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>100</v>
@@ -2431,7 +2439,7 @@
         <v>98</v>
       </c>
       <c r="G23" s="19">
-        <v>15001</v>
+        <v>15022</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>100</v>
@@ -2468,7 +2476,7 @@
         <v>63</v>
       </c>
       <c r="G24" s="19">
-        <v>15001</v>
+        <v>15023</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>100</v>
@@ -2505,7 +2513,7 @@
         <v>97</v>
       </c>
       <c r="G25" s="19">
-        <v>15001</v>
+        <v>15024</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>100</v>
@@ -2542,7 +2550,7 @@
         <v>97</v>
       </c>
       <c r="G26" s="19">
-        <v>15001</v>
+        <v>15025</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>100</v>
@@ -2579,7 +2587,7 @@
         <v>64</v>
       </c>
       <c r="G27" s="19">
-        <v>15001</v>
+        <v>15026</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>100</v>
@@ -2616,7 +2624,7 @@
         <v>63</v>
       </c>
       <c r="G28" s="19">
-        <v>15001</v>
+        <v>15027</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>100</v>
@@ -2653,7 +2661,7 @@
         <v>63</v>
       </c>
       <c r="G29" s="19">
-        <v>15001</v>
+        <v>15028</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>100</v>
@@ -2690,7 +2698,7 @@
         <v>63</v>
       </c>
       <c r="G30" s="19">
-        <v>15001</v>
+        <v>15029</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>100</v>
@@ -2727,7 +2735,7 @@
         <v>63</v>
       </c>
       <c r="G31" s="19">
-        <v>15001</v>
+        <v>15030</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>100</v>
@@ -2764,7 +2772,7 @@
         <v>63</v>
       </c>
       <c r="G32" s="19">
-        <v>15001</v>
+        <v>15031</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>100</v>
@@ -2801,7 +2809,7 @@
         <v>63</v>
       </c>
       <c r="G33" s="19">
-        <v>15001</v>
+        <v>15032</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>100</v>
@@ -2838,7 +2846,7 @@
         <v>63</v>
       </c>
       <c r="G34" s="19">
-        <v>15001</v>
+        <v>15033</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>100</v>
@@ -2875,7 +2883,7 @@
         <v>63</v>
       </c>
       <c r="G35" s="19">
-        <v>15001</v>
+        <v>15034</v>
       </c>
       <c r="H35" s="19" t="s">
         <v>100</v>
@@ -2912,7 +2920,7 @@
         <v>63</v>
       </c>
       <c r="G36" s="19">
-        <v>15001</v>
+        <v>15035</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>100</v>
@@ -2949,7 +2957,7 @@
         <v>63</v>
       </c>
       <c r="G37" s="19">
-        <v>15001</v>
+        <v>15036</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>100</v>
@@ -2986,7 +2994,7 @@
         <v>63</v>
       </c>
       <c r="G38" s="19">
-        <v>15001</v>
+        <v>15037</v>
       </c>
       <c r="H38" s="23" t="s">
         <v>100</v>
@@ -3023,7 +3031,7 @@
         <v>63</v>
       </c>
       <c r="G39" s="19">
-        <v>15001</v>
+        <v>15038</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>100</v>
@@ -3060,7 +3068,7 @@
         <v>63</v>
       </c>
       <c r="G40" s="19">
-        <v>15001</v>
+        <v>15039</v>
       </c>
       <c r="H40" s="19" t="s">
         <v>100</v>
@@ -3097,7 +3105,7 @@
         <v>63</v>
       </c>
       <c r="G41" s="19">
-        <v>15001</v>
+        <v>15040</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>100</v>
@@ -3134,7 +3142,7 @@
         <v>63</v>
       </c>
       <c r="G42" s="19">
-        <v>15001</v>
+        <v>15041</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>100</v>
@@ -3171,7 +3179,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="19">
-        <v>15001</v>
+        <v>15042</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>100</v>
@@ -3208,7 +3216,7 @@
         <v>63</v>
       </c>
       <c r="G44" s="19">
-        <v>15001</v>
+        <v>15043</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>100</v>
@@ -3245,7 +3253,7 @@
         <v>63</v>
       </c>
       <c r="G45" s="19">
-        <v>15001</v>
+        <v>15044</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>100</v>
@@ -3282,7 +3290,7 @@
         <v>63</v>
       </c>
       <c r="G46" s="19">
-        <v>15001</v>
+        <v>15045</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>100</v>
@@ -3319,7 +3327,7 @@
         <v>63</v>
       </c>
       <c r="G47" s="19">
-        <v>15001</v>
+        <v>15046</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>100</v>
@@ -3356,7 +3364,7 @@
         <v>63</v>
       </c>
       <c r="G48" s="19">
-        <v>15001</v>
+        <v>15047</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>100</v>
@@ -3393,7 +3401,7 @@
         <v>63</v>
       </c>
       <c r="G49" s="19">
-        <v>15001</v>
+        <v>15048</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>100</v>
@@ -3430,7 +3438,7 @@
         <v>63</v>
       </c>
       <c r="G50" s="19">
-        <v>15001</v>
+        <v>15049</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>100</v>
@@ -3467,7 +3475,7 @@
         <v>63</v>
       </c>
       <c r="G51" s="19">
-        <v>15001</v>
+        <v>15050</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>100</v>
@@ -3504,7 +3512,7 @@
         <v>63</v>
       </c>
       <c r="G52" s="19">
-        <v>15001</v>
+        <v>15051</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>100</v>
@@ -3541,7 +3549,7 @@
         <v>63</v>
       </c>
       <c r="G53" s="19">
-        <v>15001</v>
+        <v>15052</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>100</v>
@@ -3578,7 +3586,7 @@
         <v>63</v>
       </c>
       <c r="G54" s="19">
-        <v>15001</v>
+        <v>15053</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>100</v>
@@ -3615,7 +3623,7 @@
         <v>63</v>
       </c>
       <c r="G55" s="19">
-        <v>15001</v>
+        <v>15054</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>100</v>
@@ -3652,7 +3660,7 @@
         <v>63</v>
       </c>
       <c r="G56" s="19">
-        <v>15001</v>
+        <v>15055</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>100</v>
@@ -3689,7 +3697,7 @@
         <v>63</v>
       </c>
       <c r="G57" s="19">
-        <v>15001</v>
+        <v>15056</v>
       </c>
       <c r="H57" s="19" t="s">
         <v>100</v>
@@ -3726,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="G58" s="19">
-        <v>15001</v>
+        <v>15057</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>100</v>
@@ -3763,7 +3771,7 @@
         <v>63</v>
       </c>
       <c r="G59" s="19">
-        <v>15001</v>
+        <v>15058</v>
       </c>
       <c r="H59" s="19" t="s">
         <v>100</v>
@@ -3799,7 +3807,7 @@
         <v>63</v>
       </c>
       <c r="G60" s="19">
-        <v>15001</v>
+        <v>15059</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>100</v>
@@ -3834,7 +3842,7 @@
         <v>63</v>
       </c>
       <c r="G61" s="19">
-        <v>15001</v>
+        <v>15060</v>
       </c>
       <c r="H61" s="25" t="s">
         <v>100</v>
@@ -3869,7 +3877,7 @@
         <v>63</v>
       </c>
       <c r="G62" s="19">
-        <v>15001</v>
+        <v>15061</v>
       </c>
       <c r="H62" s="25" t="s">
         <v>100</v>
@@ -3904,7 +3912,7 @@
         <v>63</v>
       </c>
       <c r="G63" s="19">
-        <v>15001</v>
+        <v>15062</v>
       </c>
       <c r="H63" s="25" t="s">
         <v>100</v>
@@ -3939,7 +3947,7 @@
         <v>63</v>
       </c>
       <c r="G64" s="19">
-        <v>15001</v>
+        <v>15063</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>100</v>
@@ -3974,7 +3982,7 @@
         <v>63</v>
       </c>
       <c r="G65" s="19">
-        <v>15001</v>
+        <v>15064</v>
       </c>
       <c r="H65" s="25" t="s">
         <v>100</v>
@@ -4009,7 +4017,7 @@
         <v>63</v>
       </c>
       <c r="G66" s="19">
-        <v>15001</v>
+        <v>15065</v>
       </c>
       <c r="H66" s="25" t="s">
         <v>100</v>
@@ -4043,8 +4051,8 @@
       <c r="F67" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G67" s="28">
-        <v>15001</v>
+      <c r="G67" s="19">
+        <v>15066</v>
       </c>
       <c r="H67" s="21" t="s">
         <v>100</v>
@@ -4078,8 +4086,8 @@
       <c r="F68" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="28">
-        <v>15001</v>
+      <c r="G68" s="19">
+        <v>15067</v>
       </c>
       <c r="H68" s="21" t="s">
         <v>100</v>
@@ -4113,8 +4121,8 @@
       <c r="F69" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="28">
-        <v>15001</v>
+      <c r="G69" s="19">
+        <v>15068</v>
       </c>
       <c r="H69" s="21" t="s">
         <v>100</v>
@@ -4148,8 +4156,8 @@
       <c r="F70" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="28">
-        <v>15001</v>
+      <c r="G70" s="19">
+        <v>15069</v>
       </c>
       <c r="H70" s="21" t="s">
         <v>100</v>
@@ -4183,8 +4191,8 @@
       <c r="F71" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="28">
-        <v>15001</v>
+      <c r="G71" s="19">
+        <v>15070</v>
       </c>
       <c r="H71" s="21" t="s">
         <v>100</v>
@@ -4218,8 +4226,8 @@
       <c r="F72" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="28">
-        <v>15001</v>
+      <c r="G72" s="19">
+        <v>15071</v>
       </c>
       <c r="H72" s="21" t="s">
         <v>100</v>
@@ -10661,8 +10669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A214"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10827,7 +10835,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -10885,7 +10893,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="2"/>
